--- a/plant_expr_API/all_plant_data/gravimetric_data.xlsx
+++ b/plant_expr_API/all_plant_data/gravimetric_data.xlsx
@@ -5,32 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxin833\THz_project\THz-Ryegrass-Hydration-Measurement\plant_expr_API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\postgraduate\2024spring\dissertation\project\plant_expr_API\all_plant_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4C38CC-3F22-425A-AF02-4F224B56D38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E965FA-4EC3-439D-A213-C8490E000D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>group</t>
-  </si>
-  <si>
-    <t>weight</t>
   </si>
   <si>
     <t>One50_1</t>
@@ -46,6 +54,9 @@
   </si>
   <si>
     <t>dry</t>
+  </si>
+  <si>
+    <t>RWC_gravimetric</t>
   </si>
 </sst>
 </file>
@@ -374,51 +385,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -428,6 +449,13 @@
       <c r="C3">
         <v>5.3499999999999999E-2</v>
       </c>
+      <c r="D3">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="E3">
+        <f>(B3-D3)/(C3-D3)</f>
+        <v>0.94181034482758619</v>
+      </c>
       <c r="H3">
         <v>1</v>
       </c>
@@ -435,10 +463,17 @@
         <v>4.36E-2</v>
       </c>
       <c r="J3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="K3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L3">
+        <f>(I3-K3)/(J3-K3)</f>
+        <v>0.95918367346938782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -448,6 +483,13 @@
       <c r="C4">
         <v>3.6200000000000003E-2</v>
       </c>
+      <c r="D4">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E9" si="0">(B4-D4)/(C4-D4)</f>
+        <v>0.84300341296928327</v>
+      </c>
       <c r="H4">
         <v>2</v>
       </c>
@@ -457,69 +499,162 @@
       <c r="J4">
         <v>2.01E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L8" si="1">(I4-K4)/(J4-K4)</f>
+        <v>0.86524822695035464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>2.18E-2</v>
       </c>
+      <c r="C5">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.79534883720930227</v>
+      </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
         <v>1.5100000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="K5">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0.58083832335329344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>3.0300000000000001E-2</v>
       </c>
+      <c r="C6">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="D6">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.77302631578947378</v>
+      </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6">
         <v>1.9800000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="K6">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0.54066985645933019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1.6500000000000001E-2</v>
       </c>
+      <c r="C7">
+        <v>2.64E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.52857142857142869</v>
+      </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7">
         <v>9.4999999999999998E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="K7">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.35294117647058815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>6.4999999999999997E-3</v>
       </c>
+      <c r="C8">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.13286713286713284</v>
+      </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8">
         <v>6.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>9.1836734693877528E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="H9">
         <v>7</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
